--- a/example.xlsx
+++ b/example.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>Image1234567890Results1234567890</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>C</t>
@@ -360,12 +363,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
